--- a/notas_estudiantes.xlsx
+++ b/notas_estudiantes.xlsx
@@ -8,19 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/322aa45d8efa2c13/PQ1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_26F8A11A51784A0E62355476585DCE3AA744D607" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{678D2C4B-B277-8846-BDF2-BC7180AABAD3}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_26F8A11A51784A0E62355476585DCE3AA744D607" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDD68F53-F8B9-E14A-B078-4C380216C394}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="279">
   <si>
     <t>LICENCIATURA</t>
   </si>
@@ -391,9 +403,6 @@
     <t>degoisc083@gmail.com</t>
   </si>
   <si>
-    <t>32759137</t>
-  </si>
-  <si>
     <t>AYRAM GISSELLE</t>
   </si>
   <si>
@@ -679,9 +688,6 @@
     <t>rodriguezdomingoluciano@gmail.com</t>
   </si>
   <si>
-    <t>31873404</t>
-  </si>
-  <si>
     <t>ENMANUEL JOSUE</t>
   </si>
   <si>
@@ -860,6 +866,9 @@
   </si>
   <si>
     <t>Parcial 3 (15%)</t>
+  </si>
+  <si>
+    <t>acumulado</t>
   </si>
 </sst>
 </file>
@@ -894,7 +903,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -928,16 +937,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1242,14 +1263,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N67"/>
+  <dimension ref="A1:P67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="20.1640625" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
@@ -1259,7 +1281,7 @@
     <col min="14" max="14" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1300,10 +1322,13 @@
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1323,7 +1348,8 @@
         <v>15</v>
       </c>
       <c r="G2">
-        <v>5.7374999999999998</v>
+        <f>F2*0.15+I2*0.025+J2*0.025+K2*0.025+L2*0.025+M2*0.15+N2*0.15</f>
+        <v>7.9874999999999998</v>
       </c>
       <c r="H2">
         <v>100</v>
@@ -1347,7 +1373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1367,7 +1393,8 @@
         <v>17</v>
       </c>
       <c r="G3">
-        <v>6.4499999999999993</v>
+        <f t="shared" ref="G3:G66" si="0">F3*0.15+I3*0.025+J3*0.025+K3*0.025+L3*0.025+M3*0.15+N3*0.15</f>
+        <v>9.4499999999999993</v>
       </c>
       <c r="H3">
         <v>100</v>
@@ -1391,7 +1418,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1408,7 +1435,8 @@
         <v>26</v>
       </c>
       <c r="G4">
-        <v>1.875</v>
+        <f t="shared" si="0"/>
+        <v>3.5249999999999999</v>
       </c>
       <c r="H4">
         <v>62.5</v>
@@ -1432,7 +1460,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1448,6 +1476,10 @@
       <c r="E5" t="s">
         <v>30</v>
       </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H5">
         <v>62.5</v>
       </c>
@@ -1467,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1487,7 +1519,8 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>1.65</v>
+        <f t="shared" si="0"/>
+        <v>2.7</v>
       </c>
       <c r="H6">
         <v>100</v>
@@ -1511,7 +1544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1531,7 +1564,8 @@
         <v>13.5</v>
       </c>
       <c r="G7">
-        <v>4.9625000000000004</v>
+        <f t="shared" si="0"/>
+        <v>7.9625000000000004</v>
       </c>
       <c r="H7">
         <v>100</v>
@@ -1555,7 +1589,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1575,7 +1609,8 @@
         <v>3</v>
       </c>
       <c r="G8">
-        <v>1.5</v>
+        <f t="shared" si="0"/>
+        <v>1.65</v>
       </c>
       <c r="H8">
         <v>100</v>
@@ -1599,7 +1634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1619,7 +1654,8 @@
         <v>3</v>
       </c>
       <c r="G9">
-        <v>3.0625</v>
+        <f t="shared" si="0"/>
+        <v>3.5125000000000002</v>
       </c>
       <c r="H9">
         <v>100</v>
@@ -1643,7 +1679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1663,7 +1699,8 @@
         <v>15.5</v>
       </c>
       <c r="G10">
-        <v>5.625</v>
+        <f t="shared" si="0"/>
+        <v>8.625</v>
       </c>
       <c r="H10">
         <v>100</v>
@@ -1687,7 +1724,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1707,7 +1744,8 @@
         <v>17</v>
       </c>
       <c r="G11">
-        <v>4.8374999999999986</v>
+        <f t="shared" si="0"/>
+        <v>7.5374999999999996</v>
       </c>
       <c r="H11">
         <v>100</v>
@@ -1731,7 +1769,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1751,7 +1789,8 @@
         <v>3</v>
       </c>
       <c r="G12">
-        <v>2.3250000000000002</v>
+        <f t="shared" si="0"/>
+        <v>5.3249999999999993</v>
       </c>
       <c r="H12">
         <v>100</v>
@@ -1775,7 +1814,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1791,6 +1830,10 @@
       <c r="E13" t="s">
         <v>63</v>
       </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H13">
         <v>62.5</v>
       </c>
@@ -1810,7 +1853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1830,7 +1873,8 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.45</v>
+        <f t="shared" si="0"/>
+        <v>2.125</v>
       </c>
       <c r="H14">
         <v>100</v>
@@ -1854,7 +1898,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1874,7 +1918,8 @@
         <v>7</v>
       </c>
       <c r="G15">
-        <v>3.1124999999999998</v>
+        <f t="shared" si="0"/>
+        <v>3.5625</v>
       </c>
       <c r="H15">
         <v>100</v>
@@ -1898,7 +1943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1918,7 +1963,8 @@
         <v>5.5</v>
       </c>
       <c r="G16">
-        <v>4.7874999999999996</v>
+        <f t="shared" si="0"/>
+        <v>5.6875</v>
       </c>
       <c r="H16">
         <v>100</v>
@@ -1962,7 +2008,8 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.325</v>
+        <f t="shared" si="0"/>
+        <v>1.4749999999999999</v>
       </c>
       <c r="H17">
         <v>100</v>
@@ -2006,6 +2053,7 @@
         <v>1</v>
       </c>
       <c r="G18">
+        <f t="shared" si="0"/>
         <v>0.96249999999999991</v>
       </c>
       <c r="H18">
@@ -2044,7 +2092,8 @@
         <v>87</v>
       </c>
       <c r="G19">
-        <v>2.8624999999999998</v>
+        <f t="shared" si="0"/>
+        <v>4.3624999999999998</v>
       </c>
       <c r="H19">
         <v>62.5</v>
@@ -2088,7 +2137,8 @@
         <v>2</v>
       </c>
       <c r="G20">
-        <v>2.9249999999999998</v>
+        <f t="shared" si="0"/>
+        <v>3.0749999999999997</v>
       </c>
       <c r="H20">
         <v>100</v>
@@ -2129,7 +2179,8 @@
         <v>94</v>
       </c>
       <c r="G21">
-        <v>2.85</v>
+        <f t="shared" si="0"/>
+        <v>3.4499999999999997</v>
       </c>
       <c r="H21">
         <v>62.5</v>
@@ -2173,7 +2224,8 @@
         <v>6</v>
       </c>
       <c r="G22">
-        <v>3.45</v>
+        <f t="shared" si="0"/>
+        <v>3.75</v>
       </c>
       <c r="H22">
         <v>100</v>
@@ -2217,7 +2269,8 @@
         <v>8</v>
       </c>
       <c r="G23">
-        <v>2.2374999999999998</v>
+        <f t="shared" si="0"/>
+        <v>3.8874999999999997</v>
       </c>
       <c r="H23">
         <v>100</v>
@@ -2261,6 +2314,7 @@
         <v>3</v>
       </c>
       <c r="G24">
+        <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
       <c r="H24">
@@ -2302,7 +2356,8 @@
         <v>8</v>
       </c>
       <c r="G25">
-        <v>3.4125000000000001</v>
+        <f t="shared" si="0"/>
+        <v>3.5624999999999996</v>
       </c>
       <c r="H25">
         <v>100</v>
@@ -2346,7 +2401,8 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.7625</v>
+        <f t="shared" si="0"/>
+        <v>3.5625</v>
       </c>
       <c r="H26">
         <v>100</v>
@@ -2386,6 +2442,10 @@
       <c r="E27" t="s">
         <v>118</v>
       </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H27">
         <v>62.5</v>
       </c>
@@ -2425,7 +2485,8 @@
         <v>5</v>
       </c>
       <c r="G28">
-        <v>2.35</v>
+        <f t="shared" si="0"/>
+        <v>3.3250000000000002</v>
       </c>
       <c r="H28">
         <v>100</v>
@@ -2453,23 +2514,24 @@
       <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29">
+        <v>32759137</v>
+      </c>
+      <c r="C29" t="s">
         <v>123</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>124</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>125</v>
-      </c>
-      <c r="E29" t="s">
-        <v>126</v>
       </c>
       <c r="F29">
         <v>6</v>
       </c>
       <c r="G29">
-        <v>2.6375000000000002</v>
+        <f t="shared" si="0"/>
+        <v>3.2375000000000003</v>
       </c>
       <c r="H29">
         <v>100</v>
@@ -2498,22 +2560,23 @@
         <v>13</v>
       </c>
       <c r="B30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" t="s">
         <v>127</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>128</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>129</v>
-      </c>
-      <c r="E30" t="s">
-        <v>130</v>
       </c>
       <c r="F30">
         <v>9</v>
       </c>
       <c r="G30">
-        <v>4.9375</v>
+        <f t="shared" si="0"/>
+        <v>5.6875</v>
       </c>
       <c r="H30">
         <v>100</v>
@@ -2542,22 +2605,23 @@
         <v>13</v>
       </c>
       <c r="B31" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" t="s">
         <v>131</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>132</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>133</v>
-      </c>
-      <c r="E31" t="s">
-        <v>134</v>
       </c>
       <c r="F31">
         <v>6.5</v>
       </c>
       <c r="G31">
-        <v>2.35</v>
+        <f t="shared" si="0"/>
+        <v>2.5</v>
       </c>
       <c r="H31">
         <v>100</v>
@@ -2586,22 +2650,23 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" t="s">
         <v>135</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>136</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>137</v>
-      </c>
-      <c r="E32" t="s">
-        <v>138</v>
       </c>
       <c r="F32">
         <v>4</v>
       </c>
       <c r="G32">
-        <v>2.5750000000000002</v>
+        <f t="shared" si="0"/>
+        <v>4.8250000000000002</v>
       </c>
       <c r="H32">
         <v>100</v>
@@ -2630,22 +2695,23 @@
         <v>18</v>
       </c>
       <c r="B33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" t="s">
         <v>139</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>140</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>141</v>
-      </c>
-      <c r="E33" t="s">
-        <v>142</v>
       </c>
       <c r="F33">
         <v>2</v>
       </c>
       <c r="G33">
-        <v>1.7625</v>
+        <f t="shared" si="0"/>
+        <v>1.9125000000000001</v>
       </c>
       <c r="H33">
         <v>100</v>
@@ -2674,22 +2740,23 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" t="s">
         <v>143</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>144</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>145</v>
-      </c>
-      <c r="E34" t="s">
-        <v>146</v>
       </c>
       <c r="F34">
         <v>8</v>
       </c>
       <c r="G34">
-        <v>3.35</v>
+        <f t="shared" si="0"/>
+        <v>3.8</v>
       </c>
       <c r="H34">
         <v>100</v>
@@ -2718,22 +2785,23 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" t="s">
         <v>147</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>148</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>149</v>
-      </c>
-      <c r="E35" t="s">
-        <v>150</v>
       </c>
       <c r="F35">
         <v>14</v>
       </c>
       <c r="G35">
-        <v>5.3875000000000002</v>
+        <f t="shared" si="0"/>
+        <v>8.3874999999999993</v>
       </c>
       <c r="H35">
         <v>100</v>
@@ -2762,21 +2830,22 @@
         <v>31</v>
       </c>
       <c r="B36" t="s">
+        <v>150</v>
+      </c>
+      <c r="C36" t="s">
         <v>151</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>152</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>153</v>
-      </c>
-      <c r="E36" t="s">
-        <v>154</v>
       </c>
       <c r="F36">
         <v>2</v>
       </c>
       <c r="G36">
+        <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="H36">
@@ -2803,22 +2872,23 @@
         <v>31</v>
       </c>
       <c r="B37" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" t="s">
         <v>155</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>156</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>157</v>
-      </c>
-      <c r="E37" t="s">
-        <v>158</v>
       </c>
       <c r="F37">
         <v>3</v>
       </c>
       <c r="G37">
-        <v>2.2124999999999999</v>
+        <f t="shared" si="0"/>
+        <v>3.2625000000000002</v>
       </c>
       <c r="H37">
         <v>100</v>
@@ -2847,21 +2917,22 @@
         <v>18</v>
       </c>
       <c r="B38" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" t="s">
         <v>159</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>160</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>161</v>
       </c>
-      <c r="E38" t="s">
-        <v>162</v>
-      </c>
       <c r="F38">
         <v>1</v>
       </c>
       <c r="G38">
+        <f t="shared" si="0"/>
         <v>1.175</v>
       </c>
       <c r="H38">
@@ -2888,22 +2959,23 @@
         <v>18</v>
       </c>
       <c r="B39" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" t="s">
         <v>163</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>164</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>165</v>
       </c>
-      <c r="E39" t="s">
-        <v>166</v>
-      </c>
       <c r="F39">
         <v>1</v>
       </c>
       <c r="G39">
-        <v>1.1875</v>
+        <f t="shared" si="0"/>
+        <v>1.3374999999999999</v>
       </c>
       <c r="H39">
         <v>100</v>
@@ -2932,16 +3004,20 @@
         <v>31</v>
       </c>
       <c r="B40" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" t="s">
         <v>167</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>168</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>169</v>
       </c>
-      <c r="E40" t="s">
-        <v>170</v>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H40">
         <v>62.5</v>
@@ -2967,22 +3043,23 @@
         <v>31</v>
       </c>
       <c r="B41" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41" t="s">
         <v>171</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>172</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>173</v>
-      </c>
-      <c r="E41" t="s">
-        <v>174</v>
       </c>
       <c r="F41">
         <v>11</v>
       </c>
       <c r="G41">
-        <v>5.3375000000000004</v>
+        <f t="shared" si="0"/>
+        <v>5.5625</v>
       </c>
       <c r="H41">
         <v>100</v>
@@ -3011,22 +3088,23 @@
         <v>18</v>
       </c>
       <c r="B42" t="s">
+        <v>174</v>
+      </c>
+      <c r="C42" t="s">
         <v>175</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>176</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>177</v>
-      </c>
-      <c r="E42" t="s">
-        <v>178</v>
       </c>
       <c r="F42">
         <v>4</v>
       </c>
       <c r="G42">
-        <v>2.1875</v>
+        <f t="shared" si="0"/>
+        <v>3.2374999999999998</v>
       </c>
       <c r="H42">
         <v>100</v>
@@ -3055,22 +3133,23 @@
         <v>31</v>
       </c>
       <c r="B43" t="s">
+        <v>178</v>
+      </c>
+      <c r="C43" t="s">
         <v>179</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>180</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>181</v>
       </c>
-      <c r="E43" t="s">
-        <v>182</v>
-      </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43">
-        <v>1.675</v>
+        <f t="shared" si="0"/>
+        <v>1.825</v>
       </c>
       <c r="H43">
         <v>100</v>
@@ -3099,22 +3178,23 @@
         <v>18</v>
       </c>
       <c r="B44" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" t="s">
         <v>183</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>184</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>185</v>
       </c>
-      <c r="E44" t="s">
-        <v>186</v>
-      </c>
       <c r="F44">
         <v>1</v>
       </c>
       <c r="G44">
-        <v>1.175</v>
+        <f t="shared" si="0"/>
+        <v>1.325</v>
       </c>
       <c r="H44">
         <v>100</v>
@@ -3143,22 +3223,23 @@
         <v>31</v>
       </c>
       <c r="B45" t="s">
+        <v>186</v>
+      </c>
+      <c r="C45" t="s">
         <v>187</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>188</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>189</v>
-      </c>
-      <c r="E45" t="s">
-        <v>190</v>
       </c>
       <c r="F45">
         <v>4</v>
       </c>
       <c r="G45">
-        <v>2.3624999999999998</v>
+        <f t="shared" si="0"/>
+        <v>2.5124999999999997</v>
       </c>
       <c r="H45">
         <v>100</v>
@@ -3187,22 +3268,23 @@
         <v>18</v>
       </c>
       <c r="B46" t="s">
+        <v>190</v>
+      </c>
+      <c r="C46" t="s">
         <v>191</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>192</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>193</v>
-      </c>
-      <c r="E46" t="s">
-        <v>194</v>
       </c>
       <c r="F46">
         <v>11</v>
       </c>
       <c r="G46">
-        <v>4.5374999999999996</v>
+        <f t="shared" si="0"/>
+        <v>6.6374999999999993</v>
       </c>
       <c r="H46">
         <v>100</v>
@@ -3231,22 +3313,23 @@
         <v>13</v>
       </c>
       <c r="B47" t="s">
+        <v>194</v>
+      </c>
+      <c r="C47" t="s">
         <v>195</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>196</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>197</v>
-      </c>
-      <c r="E47" t="s">
-        <v>198</v>
       </c>
       <c r="F47">
         <v>5</v>
       </c>
       <c r="G47">
-        <v>3.7374999999999998</v>
+        <f t="shared" si="0"/>
+        <v>3.8874999999999997</v>
       </c>
       <c r="H47">
         <v>100</v>
@@ -3275,22 +3358,23 @@
         <v>18</v>
       </c>
       <c r="B48" t="s">
+        <v>198</v>
+      </c>
+      <c r="C48" t="s">
         <v>199</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>200</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>201</v>
       </c>
-      <c r="E48" t="s">
-        <v>202</v>
-      </c>
       <c r="F48">
         <v>1</v>
       </c>
       <c r="G48">
-        <v>0.91250000000000009</v>
+        <f t="shared" si="0"/>
+        <v>1.0625</v>
       </c>
       <c r="H48">
         <v>100</v>
@@ -3319,22 +3403,23 @@
         <v>31</v>
       </c>
       <c r="B49" t="s">
+        <v>202</v>
+      </c>
+      <c r="C49" t="s">
         <v>203</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>204</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>205</v>
-      </c>
-      <c r="E49" t="s">
-        <v>206</v>
       </c>
       <c r="F49">
         <v>4</v>
       </c>
       <c r="G49">
-        <v>2.4125000000000001</v>
+        <f t="shared" si="0"/>
+        <v>2.8624999999999998</v>
       </c>
       <c r="H49">
         <v>100</v>
@@ -3363,22 +3448,23 @@
         <v>31</v>
       </c>
       <c r="B50" t="s">
+        <v>206</v>
+      </c>
+      <c r="C50" t="s">
         <v>207</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>208</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>209</v>
-      </c>
-      <c r="E50" t="s">
-        <v>210</v>
       </c>
       <c r="F50">
         <v>6</v>
       </c>
       <c r="G50">
-        <v>4.8874999999999993</v>
+        <f t="shared" si="0"/>
+        <v>6.0874999999999995</v>
       </c>
       <c r="H50">
         <v>100</v>
@@ -3407,22 +3493,23 @@
         <v>18</v>
       </c>
       <c r="B51" t="s">
+        <v>210</v>
+      </c>
+      <c r="C51" t="s">
         <v>211</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>212</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>213</v>
-      </c>
-      <c r="E51" t="s">
-        <v>214</v>
       </c>
       <c r="F51">
         <v>10</v>
       </c>
       <c r="G51">
-        <v>4.8624999999999998</v>
+        <f t="shared" si="0"/>
+        <v>6.6624999999999996</v>
       </c>
       <c r="H51">
         <v>100</v>
@@ -3451,22 +3538,23 @@
         <v>18</v>
       </c>
       <c r="B52" t="s">
+        <v>214</v>
+      </c>
+      <c r="C52" t="s">
         <v>215</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>216</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>217</v>
-      </c>
-      <c r="E52" t="s">
-        <v>218</v>
       </c>
       <c r="F52">
         <v>2</v>
       </c>
       <c r="G52">
-        <v>2.8125</v>
+        <f t="shared" si="0"/>
+        <v>3.7124999999999999</v>
       </c>
       <c r="H52">
         <v>100</v>
@@ -3494,23 +3582,24 @@
       <c r="A53" t="s">
         <v>13</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53">
+        <v>31873404</v>
+      </c>
+      <c r="C53" t="s">
+        <v>218</v>
+      </c>
+      <c r="D53" t="s">
         <v>219</v>
       </c>
-      <c r="C53" t="s">
+      <c r="E53" t="s">
         <v>220</v>
-      </c>
-      <c r="D53" t="s">
-        <v>221</v>
-      </c>
-      <c r="E53" t="s">
-        <v>222</v>
       </c>
       <c r="F53">
         <v>4</v>
       </c>
       <c r="G53">
-        <v>2.2250000000000001</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="H53">
         <v>100</v>
@@ -3539,22 +3628,23 @@
         <v>13</v>
       </c>
       <c r="B54" t="s">
+        <v>221</v>
+      </c>
+      <c r="C54" t="s">
+        <v>222</v>
+      </c>
+      <c r="D54" t="s">
         <v>223</v>
       </c>
-      <c r="C54" t="s">
+      <c r="E54" t="s">
         <v>224</v>
-      </c>
-      <c r="D54" t="s">
-        <v>225</v>
-      </c>
-      <c r="E54" t="s">
-        <v>226</v>
       </c>
       <c r="F54">
         <v>2</v>
       </c>
       <c r="G54">
-        <v>2.75</v>
+        <f t="shared" si="0"/>
+        <v>3.5</v>
       </c>
       <c r="H54">
         <v>100</v>
@@ -3583,22 +3673,23 @@
         <v>31</v>
       </c>
       <c r="B55" t="s">
+        <v>225</v>
+      </c>
+      <c r="C55" t="s">
+        <v>226</v>
+      </c>
+      <c r="D55" t="s">
         <v>227</v>
       </c>
-      <c r="C55" t="s">
+      <c r="E55" t="s">
         <v>228</v>
-      </c>
-      <c r="D55" t="s">
-        <v>229</v>
-      </c>
-      <c r="E55" t="s">
-        <v>230</v>
       </c>
       <c r="F55">
         <v>7</v>
       </c>
       <c r="G55">
-        <v>3.7624999999999988</v>
+        <f t="shared" si="0"/>
+        <v>3.9124999999999992</v>
       </c>
       <c r="H55">
         <v>100</v>
@@ -3627,16 +3718,20 @@
         <v>18</v>
       </c>
       <c r="B56" t="s">
+        <v>229</v>
+      </c>
+      <c r="C56" t="s">
+        <v>230</v>
+      </c>
+      <c r="D56" t="s">
         <v>231</v>
       </c>
-      <c r="C56" t="s">
+      <c r="E56" t="s">
         <v>232</v>
       </c>
-      <c r="D56" t="s">
-        <v>233</v>
-      </c>
-      <c r="E56" t="s">
-        <v>234</v>
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
       </c>
       <c r="H56">
         <v>62.5</v>
@@ -3665,19 +3760,20 @@
         <v>18</v>
       </c>
       <c r="B57" t="s">
+        <v>233</v>
+      </c>
+      <c r="C57" t="s">
+        <v>234</v>
+      </c>
+      <c r="D57" t="s">
         <v>235</v>
       </c>
-      <c r="C57" t="s">
+      <c r="E57" t="s">
         <v>236</v>
       </c>
-      <c r="D57" t="s">
-        <v>237</v>
-      </c>
-      <c r="E57" t="s">
-        <v>238</v>
-      </c>
       <c r="G57">
-        <v>0.82500000000000007</v>
+        <f t="shared" si="0"/>
+        <v>0.97500000000000009</v>
       </c>
       <c r="H57">
         <v>62.5</v>
@@ -3706,22 +3802,23 @@
         <v>18</v>
       </c>
       <c r="B58" t="s">
+        <v>237</v>
+      </c>
+      <c r="C58" t="s">
+        <v>238</v>
+      </c>
+      <c r="D58" t="s">
         <v>239</v>
       </c>
-      <c r="C58" t="s">
+      <c r="E58" t="s">
         <v>240</v>
       </c>
-      <c r="D58" t="s">
-        <v>241</v>
-      </c>
-      <c r="E58" t="s">
-        <v>242</v>
-      </c>
       <c r="F58">
         <v>1</v>
       </c>
       <c r="G58">
-        <v>1.5249999999999999</v>
+        <f t="shared" si="0"/>
+        <v>1.6749999999999998</v>
       </c>
       <c r="H58">
         <v>100</v>
@@ -3750,22 +3847,23 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
+        <v>241</v>
+      </c>
+      <c r="C59" t="s">
+        <v>242</v>
+      </c>
+      <c r="D59" t="s">
         <v>243</v>
       </c>
-      <c r="C59" t="s">
+      <c r="E59" t="s">
         <v>244</v>
-      </c>
-      <c r="D59" t="s">
-        <v>245</v>
-      </c>
-      <c r="E59" t="s">
-        <v>246</v>
       </c>
       <c r="F59">
         <v>2</v>
       </c>
       <c r="G59">
-        <v>1.7375</v>
+        <f t="shared" si="0"/>
+        <v>1.8875</v>
       </c>
       <c r="H59">
         <v>100</v>
@@ -3794,22 +3892,23 @@
         <v>31</v>
       </c>
       <c r="B60" t="s">
+        <v>245</v>
+      </c>
+      <c r="C60" t="s">
+        <v>246</v>
+      </c>
+      <c r="D60" t="s">
         <v>247</v>
       </c>
-      <c r="C60" t="s">
+      <c r="E60" t="s">
         <v>248</v>
-      </c>
-      <c r="D60" t="s">
-        <v>249</v>
-      </c>
-      <c r="E60" t="s">
-        <v>250</v>
       </c>
       <c r="F60">
         <v>4</v>
       </c>
       <c r="G60">
-        <v>2.3875000000000002</v>
+        <f t="shared" si="0"/>
+        <v>2.5375000000000001</v>
       </c>
       <c r="H60">
         <v>100</v>
@@ -3838,22 +3937,23 @@
         <v>18</v>
       </c>
       <c r="B61" t="s">
+        <v>249</v>
+      </c>
+      <c r="C61" t="s">
+        <v>250</v>
+      </c>
+      <c r="D61" t="s">
         <v>251</v>
       </c>
-      <c r="C61" t="s">
+      <c r="E61" t="s">
         <v>252</v>
-      </c>
-      <c r="D61" t="s">
-        <v>253</v>
-      </c>
-      <c r="E61" t="s">
-        <v>254</v>
       </c>
       <c r="F61">
         <v>3</v>
       </c>
       <c r="G61">
-        <v>1.9750000000000001</v>
+        <f t="shared" si="0"/>
+        <v>2.125</v>
       </c>
       <c r="H61">
         <v>100</v>
@@ -3882,22 +3982,23 @@
         <v>18</v>
       </c>
       <c r="B62" t="s">
+        <v>253</v>
+      </c>
+      <c r="C62" t="s">
+        <v>254</v>
+      </c>
+      <c r="D62" t="s">
         <v>255</v>
       </c>
-      <c r="C62" t="s">
+      <c r="E62" t="s">
         <v>256</v>
-      </c>
-      <c r="D62" t="s">
-        <v>257</v>
-      </c>
-      <c r="E62" t="s">
-        <v>258</v>
       </c>
       <c r="F62">
         <v>9</v>
       </c>
       <c r="G62">
-        <v>4.0125000000000002</v>
+        <f t="shared" si="0"/>
+        <v>4.3125</v>
       </c>
       <c r="H62">
         <v>100</v>
@@ -3926,22 +4027,23 @@
         <v>31</v>
       </c>
       <c r="B63" t="s">
+        <v>257</v>
+      </c>
+      <c r="C63" t="s">
+        <v>258</v>
+      </c>
+      <c r="D63" t="s">
         <v>259</v>
       </c>
-      <c r="C63" t="s">
+      <c r="E63" t="s">
         <v>260</v>
-      </c>
-      <c r="D63" t="s">
-        <v>261</v>
-      </c>
-      <c r="E63" t="s">
-        <v>262</v>
       </c>
       <c r="F63">
         <v>8</v>
       </c>
       <c r="G63">
-        <v>2.75</v>
+        <f t="shared" si="0"/>
+        <v>3.95</v>
       </c>
       <c r="H63">
         <v>100</v>
@@ -3970,21 +4072,22 @@
         <v>13</v>
       </c>
       <c r="B64" t="s">
+        <v>261</v>
+      </c>
+      <c r="C64" t="s">
+        <v>262</v>
+      </c>
+      <c r="D64" t="s">
         <v>263</v>
       </c>
-      <c r="C64" t="s">
+      <c r="E64" t="s">
         <v>264</v>
-      </c>
-      <c r="D64" t="s">
-        <v>265</v>
-      </c>
-      <c r="E64" t="s">
-        <v>266</v>
       </c>
       <c r="F64">
         <v>3</v>
       </c>
       <c r="G64">
+        <f t="shared" si="0"/>
         <v>1.0249999999999999</v>
       </c>
       <c r="H64">
@@ -4011,22 +4114,23 @@
         <v>18</v>
       </c>
       <c r="B65" t="s">
+        <v>265</v>
+      </c>
+      <c r="C65" t="s">
+        <v>266</v>
+      </c>
+      <c r="D65" t="s">
         <v>267</v>
       </c>
-      <c r="C65" t="s">
+      <c r="E65" t="s">
         <v>268</v>
-      </c>
-      <c r="D65" t="s">
-        <v>269</v>
-      </c>
-      <c r="E65" t="s">
-        <v>270</v>
       </c>
       <c r="F65">
         <v>5</v>
       </c>
       <c r="G65">
-        <v>3.1124999999999998</v>
+        <f t="shared" si="0"/>
+        <v>3.5625</v>
       </c>
       <c r="H65">
         <v>100</v>
@@ -4055,22 +4159,23 @@
         <v>31</v>
       </c>
       <c r="B66" t="s">
+        <v>269</v>
+      </c>
+      <c r="C66" t="s">
+        <v>270</v>
+      </c>
+      <c r="D66" t="s">
         <v>271</v>
       </c>
-      <c r="C66" t="s">
+      <c r="E66" t="s">
         <v>272</v>
-      </c>
-      <c r="D66" t="s">
-        <v>273</v>
-      </c>
-      <c r="E66" t="s">
-        <v>274</v>
       </c>
       <c r="F66">
         <v>2</v>
       </c>
       <c r="G66">
-        <v>3.2124999999999999</v>
+        <f t="shared" si="0"/>
+        <v>3.8875000000000002</v>
       </c>
       <c r="H66">
         <v>100</v>
@@ -4099,22 +4204,23 @@
         <v>13</v>
       </c>
       <c r="B67" t="s">
+        <v>273</v>
+      </c>
+      <c r="C67" t="s">
+        <v>274</v>
+      </c>
+      <c r="D67" t="s">
         <v>275</v>
       </c>
-      <c r="C67" t="s">
+      <c r="E67" t="s">
         <v>276</v>
-      </c>
-      <c r="D67" t="s">
-        <v>277</v>
-      </c>
-      <c r="E67" t="s">
-        <v>278</v>
       </c>
       <c r="F67">
         <v>3</v>
       </c>
       <c r="G67">
-        <v>3.25</v>
+        <f t="shared" ref="G67" si="1">F67*0.15+I67*0.025+J67*0.025+K67*0.025+L67*0.025+M67*0.15+N67*0.15</f>
+        <v>3.55</v>
       </c>
       <c r="H67">
         <v>100</v>

--- a/notas_estudiantes.xlsx
+++ b/notas_estudiantes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/322aa45d8efa2c13/PQ1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_26F8A11A51784A0E62355476585DCE3AA744D607" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDD68F53-F8B9-E14A-B078-4C380216C394}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_26F8A11A51784A0E62355476585DCE3AA744D607" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E08317B0-DE0F-6C40-B2EC-AB024F6D27D0}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="278">
   <si>
     <t>LICENCIATURA</t>
   </si>
@@ -866,9 +866,6 @@
   </si>
   <si>
     <t>Parcial 3 (15%)</t>
-  </si>
-  <si>
-    <t>acumulado</t>
   </si>
 </sst>
 </file>
@@ -1265,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1324,9 +1321,7 @@
       <c r="N1" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>278</v>
-      </c>
+      <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">

--- a/notas_estudiantes.xlsx
+++ b/notas_estudiantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/322aa45d8efa2c13/PQ1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_26F8A11A51784A0E62355476585DCE3AA744D607" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E08317B0-DE0F-6C40-B2EC-AB024F6D27D0}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_26F8A11A51784A0E62355476585DCE3AA744D607" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96A72C80-6355-BA48-897C-628BF39BC0FE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="520" yWindow="1280" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notas" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="277">
   <si>
     <t>LICENCIATURA</t>
   </si>
@@ -140,9 +140,6 @@
   </si>
   <si>
     <t>abra20artigas@gmail.com</t>
-  </si>
-  <si>
-    <t>32008820</t>
   </si>
   <si>
     <t>ROSANA VALENTINA</t>
@@ -884,6 +881,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -952,10 +950,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -973,6 +971,14 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1263,7 +1269,7 @@
   <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1319,7 +1325,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P1" s="3"/>
     </row>
@@ -1543,17 +1549,17 @@
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>32008820</v>
+      </c>
+      <c r="C7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>37</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
       </c>
       <c r="F7">
         <v>13.5</v>
@@ -1589,16 +1595,16 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
         <v>40</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>41</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>42</v>
-      </c>
-      <c r="E8" t="s">
-        <v>43</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -1634,29 +1640,29 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
         <v>44</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>45</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>46</v>
-      </c>
-      <c r="E9" t="s">
-        <v>47</v>
       </c>
       <c r="F9">
         <v>3</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>3.5125000000000002</v>
+        <v>3.8125</v>
       </c>
       <c r="H9">
         <v>100</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J9">
         <v>19</v>
@@ -1679,16 +1685,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
         <v>48</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>49</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>50</v>
-      </c>
-      <c r="E10" t="s">
-        <v>51</v>
       </c>
       <c r="F10">
         <v>15.5</v>
@@ -1724,16 +1730,16 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
         <v>52</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>53</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>54</v>
-      </c>
-      <c r="E11" t="s">
-        <v>55</v>
       </c>
       <c r="F11">
         <v>17</v>
@@ -1769,16 +1775,16 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
         <v>56</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>57</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>58</v>
-      </c>
-      <c r="E12" t="s">
-        <v>59</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -1814,16 +1820,16 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
         <v>60</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>61</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>62</v>
-      </c>
-      <c r="E13" t="s">
-        <v>63</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
@@ -1853,16 +1859,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
         <v>64</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>65</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>66</v>
-      </c>
-      <c r="E14" t="s">
-        <v>67</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1898,16 +1904,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s">
         <v>68</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>69</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>70</v>
-      </c>
-      <c r="E15" t="s">
-        <v>71</v>
       </c>
       <c r="F15">
         <v>7</v>
@@ -1943,16 +1949,16 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
         <v>72</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>73</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>74</v>
-      </c>
-      <c r="E16" t="s">
-        <v>75</v>
       </c>
       <c r="F16">
         <v>5.5</v>
@@ -1988,16 +1994,16 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" t="s">
         <v>76</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>77</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>78</v>
-      </c>
-      <c r="E17" t="s">
-        <v>79</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -2033,16 +2039,16 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
         <v>80</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>81</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>82</v>
-      </c>
-      <c r="E18" t="s">
-        <v>83</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -2075,16 +2081,16 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" t="s">
         <v>84</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>85</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>86</v>
-      </c>
-      <c r="E19" t="s">
-        <v>87</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
@@ -2117,16 +2123,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" t="s">
         <v>88</v>
       </c>
-      <c r="C20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>89</v>
-      </c>
-      <c r="E20" t="s">
-        <v>90</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -2162,16 +2168,16 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" t="s">
         <v>91</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>92</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>93</v>
-      </c>
-      <c r="E21" t="s">
-        <v>94</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
@@ -2204,16 +2210,16 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" t="s">
         <v>95</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>96</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>97</v>
-      </c>
-      <c r="E22" t="s">
-        <v>98</v>
       </c>
       <c r="F22">
         <v>6</v>
@@ -2249,16 +2255,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" t="s">
         <v>99</v>
       </c>
-      <c r="C23" t="s">
-        <v>100</v>
-      </c>
       <c r="D23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" t="s">
         <v>101</v>
-      </c>
-      <c r="E23" t="s">
-        <v>102</v>
       </c>
       <c r="F23">
         <v>8</v>
@@ -2294,16 +2300,16 @@
         <v>13</v>
       </c>
       <c r="B24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" t="s">
         <v>103</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>104</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>105</v>
-      </c>
-      <c r="E24" t="s">
-        <v>106</v>
       </c>
       <c r="F24">
         <v>3</v>
@@ -2336,16 +2342,16 @@
         <v>13</v>
       </c>
       <c r="B25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" t="s">
         <v>107</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>108</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>109</v>
-      </c>
-      <c r="E25" t="s">
-        <v>110</v>
       </c>
       <c r="F25">
         <v>8</v>
@@ -2381,16 +2387,16 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" t="s">
         <v>111</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>112</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>113</v>
-      </c>
-      <c r="E26" t="s">
-        <v>114</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -2426,16 +2432,16 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" t="s">
         <v>115</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>116</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>117</v>
-      </c>
-      <c r="E27" t="s">
-        <v>118</v>
       </c>
       <c r="G27">
         <f t="shared" si="0"/>
@@ -2465,16 +2471,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" t="s">
         <v>119</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>120</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>121</v>
-      </c>
-      <c r="E28" t="s">
-        <v>122</v>
       </c>
       <c r="F28">
         <v>5</v>
@@ -2513,13 +2519,13 @@
         <v>32759137</v>
       </c>
       <c r="C29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" t="s">
         <v>123</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>124</v>
-      </c>
-      <c r="E29" t="s">
-        <v>125</v>
       </c>
       <c r="F29">
         <v>6</v>
@@ -2555,16 +2561,16 @@
         <v>13</v>
       </c>
       <c r="B30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" t="s">
         <v>126</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>127</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>128</v>
-      </c>
-      <c r="E30" t="s">
-        <v>129</v>
       </c>
       <c r="F30">
         <v>9</v>
@@ -2600,16 +2606,16 @@
         <v>13</v>
       </c>
       <c r="B31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" t="s">
         <v>130</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>131</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>132</v>
-      </c>
-      <c r="E31" t="s">
-        <v>133</v>
       </c>
       <c r="F31">
         <v>6.5</v>
@@ -2645,16 +2651,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" t="s">
         <v>134</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>135</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>136</v>
-      </c>
-      <c r="E32" t="s">
-        <v>137</v>
       </c>
       <c r="F32">
         <v>4</v>
@@ -2690,16 +2696,16 @@
         <v>18</v>
       </c>
       <c r="B33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" t="s">
         <v>138</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>139</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>140</v>
-      </c>
-      <c r="E33" t="s">
-        <v>141</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -2735,16 +2741,16 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" t="s">
         <v>142</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>143</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>144</v>
-      </c>
-      <c r="E34" t="s">
-        <v>145</v>
       </c>
       <c r="F34">
         <v>8</v>
@@ -2780,16 +2786,16 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" t="s">
         <v>146</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>147</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>148</v>
-      </c>
-      <c r="E35" t="s">
-        <v>149</v>
       </c>
       <c r="F35">
         <v>14</v>
@@ -2825,16 +2831,16 @@
         <v>31</v>
       </c>
       <c r="B36" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" t="s">
         <v>150</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>151</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>152</v>
-      </c>
-      <c r="E36" t="s">
-        <v>153</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -2867,16 +2873,16 @@
         <v>31</v>
       </c>
       <c r="B37" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" t="s">
         <v>154</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>155</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>156</v>
-      </c>
-      <c r="E37" t="s">
-        <v>157</v>
       </c>
       <c r="F37">
         <v>3</v>
@@ -2912,16 +2918,16 @@
         <v>18</v>
       </c>
       <c r="B38" t="s">
+        <v>157</v>
+      </c>
+      <c r="C38" t="s">
         <v>158</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>159</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>160</v>
-      </c>
-      <c r="E38" t="s">
-        <v>161</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -2954,16 +2960,16 @@
         <v>18</v>
       </c>
       <c r="B39" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" t="s">
         <v>162</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>163</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>164</v>
-      </c>
-      <c r="E39" t="s">
-        <v>165</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -2999,16 +3005,16 @@
         <v>31</v>
       </c>
       <c r="B40" t="s">
+        <v>165</v>
+      </c>
+      <c r="C40" t="s">
         <v>166</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>167</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>168</v>
-      </c>
-      <c r="E40" t="s">
-        <v>169</v>
       </c>
       <c r="G40">
         <f t="shared" si="0"/>
@@ -3038,16 +3044,16 @@
         <v>31</v>
       </c>
       <c r="B41" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" t="s">
         <v>170</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>171</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>172</v>
-      </c>
-      <c r="E41" t="s">
-        <v>173</v>
       </c>
       <c r="F41">
         <v>11</v>
@@ -3083,23 +3089,23 @@
         <v>18</v>
       </c>
       <c r="B42" t="s">
+        <v>173</v>
+      </c>
+      <c r="C42" t="s">
         <v>174</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>175</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>176</v>
-      </c>
-      <c r="E42" t="s">
-        <v>177</v>
       </c>
       <c r="F42">
         <v>4</v>
       </c>
       <c r="G42">
         <f t="shared" si="0"/>
-        <v>3.2374999999999998</v>
+        <v>3.6875</v>
       </c>
       <c r="H42">
         <v>100</v>
@@ -3117,7 +3123,7 @@
         <v>10</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N42">
         <v>7</v>
@@ -3128,16 +3134,16 @@
         <v>31</v>
       </c>
       <c r="B43" t="s">
+        <v>177</v>
+      </c>
+      <c r="C43" t="s">
         <v>178</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>179</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>180</v>
-      </c>
-      <c r="E43" t="s">
-        <v>181</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -3173,16 +3179,16 @@
         <v>18</v>
       </c>
       <c r="B44" t="s">
+        <v>181</v>
+      </c>
+      <c r="C44" t="s">
         <v>182</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>183</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>184</v>
-      </c>
-      <c r="E44" t="s">
-        <v>185</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -3218,16 +3224,16 @@
         <v>31</v>
       </c>
       <c r="B45" t="s">
+        <v>185</v>
+      </c>
+      <c r="C45" t="s">
         <v>186</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>187</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>188</v>
-      </c>
-      <c r="E45" t="s">
-        <v>189</v>
       </c>
       <c r="F45">
         <v>4</v>
@@ -3263,23 +3269,23 @@
         <v>18</v>
       </c>
       <c r="B46" t="s">
+        <v>189</v>
+      </c>
+      <c r="C46" t="s">
         <v>190</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>191</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>192</v>
-      </c>
-      <c r="E46" t="s">
-        <v>193</v>
       </c>
       <c r="F46">
         <v>11</v>
       </c>
       <c r="G46">
         <f t="shared" si="0"/>
-        <v>6.6374999999999993</v>
+        <v>7.0875000000000004</v>
       </c>
       <c r="H46">
         <v>100</v>
@@ -3297,7 +3303,7 @@
         <v>20</v>
       </c>
       <c r="M46">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N46">
         <v>14</v>
@@ -3308,16 +3314,16 @@
         <v>13</v>
       </c>
       <c r="B47" t="s">
+        <v>193</v>
+      </c>
+      <c r="C47" t="s">
         <v>194</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>195</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>196</v>
-      </c>
-      <c r="E47" t="s">
-        <v>197</v>
       </c>
       <c r="F47">
         <v>5</v>
@@ -3353,16 +3359,16 @@
         <v>18</v>
       </c>
       <c r="B48" t="s">
+        <v>197</v>
+      </c>
+      <c r="C48" t="s">
         <v>198</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>199</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>200</v>
-      </c>
-      <c r="E48" t="s">
-        <v>201</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -3398,16 +3404,16 @@
         <v>31</v>
       </c>
       <c r="B49" t="s">
+        <v>201</v>
+      </c>
+      <c r="C49" t="s">
         <v>202</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>203</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>204</v>
-      </c>
-      <c r="E49" t="s">
-        <v>205</v>
       </c>
       <c r="F49">
         <v>4</v>
@@ -3443,16 +3449,16 @@
         <v>31</v>
       </c>
       <c r="B50" t="s">
+        <v>205</v>
+      </c>
+      <c r="C50" t="s">
         <v>206</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>207</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>208</v>
-      </c>
-      <c r="E50" t="s">
-        <v>209</v>
       </c>
       <c r="F50">
         <v>6</v>
@@ -3488,16 +3494,16 @@
         <v>18</v>
       </c>
       <c r="B51" t="s">
+        <v>209</v>
+      </c>
+      <c r="C51" t="s">
         <v>210</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>211</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>212</v>
-      </c>
-      <c r="E51" t="s">
-        <v>213</v>
       </c>
       <c r="F51">
         <v>10</v>
@@ -3533,16 +3539,16 @@
         <v>18</v>
       </c>
       <c r="B52" t="s">
+        <v>213</v>
+      </c>
+      <c r="C52" t="s">
         <v>214</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>215</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>216</v>
-      </c>
-      <c r="E52" t="s">
-        <v>217</v>
       </c>
       <c r="F52">
         <v>2</v>
@@ -3581,13 +3587,13 @@
         <v>31873404</v>
       </c>
       <c r="C53" t="s">
+        <v>217</v>
+      </c>
+      <c r="D53" t="s">
         <v>218</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>219</v>
-      </c>
-      <c r="E53" t="s">
-        <v>220</v>
       </c>
       <c r="F53">
         <v>4</v>
@@ -3623,16 +3629,16 @@
         <v>13</v>
       </c>
       <c r="B54" t="s">
+        <v>220</v>
+      </c>
+      <c r="C54" t="s">
         <v>221</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>222</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>223</v>
-      </c>
-      <c r="E54" t="s">
-        <v>224</v>
       </c>
       <c r="F54">
         <v>2</v>
@@ -3668,16 +3674,16 @@
         <v>31</v>
       </c>
       <c r="B55" t="s">
+        <v>224</v>
+      </c>
+      <c r="C55" t="s">
         <v>225</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>226</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>227</v>
-      </c>
-      <c r="E55" t="s">
-        <v>228</v>
       </c>
       <c r="F55">
         <v>7</v>
@@ -3713,16 +3719,16 @@
         <v>18</v>
       </c>
       <c r="B56" t="s">
+        <v>228</v>
+      </c>
+      <c r="C56" t="s">
         <v>229</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>230</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>231</v>
-      </c>
-      <c r="E56" t="s">
-        <v>232</v>
       </c>
       <c r="G56">
         <f t="shared" si="0"/>
@@ -3755,16 +3761,16 @@
         <v>18</v>
       </c>
       <c r="B57" t="s">
+        <v>232</v>
+      </c>
+      <c r="C57" t="s">
         <v>233</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>234</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>235</v>
-      </c>
-      <c r="E57" t="s">
-        <v>236</v>
       </c>
       <c r="G57">
         <f t="shared" si="0"/>
@@ -3797,16 +3803,16 @@
         <v>18</v>
       </c>
       <c r="B58" t="s">
+        <v>236</v>
+      </c>
+      <c r="C58" t="s">
         <v>237</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>238</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>239</v>
-      </c>
-      <c r="E58" t="s">
-        <v>240</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -3842,16 +3848,16 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
+        <v>240</v>
+      </c>
+      <c r="C59" t="s">
         <v>241</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>242</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>243</v>
-      </c>
-      <c r="E59" t="s">
-        <v>244</v>
       </c>
       <c r="F59">
         <v>2</v>
@@ -3887,16 +3893,16 @@
         <v>31</v>
       </c>
       <c r="B60" t="s">
+        <v>244</v>
+      </c>
+      <c r="C60" t="s">
         <v>245</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>246</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>247</v>
-      </c>
-      <c r="E60" t="s">
-        <v>248</v>
       </c>
       <c r="F60">
         <v>4</v>
@@ -3932,16 +3938,16 @@
         <v>18</v>
       </c>
       <c r="B61" t="s">
+        <v>248</v>
+      </c>
+      <c r="C61" t="s">
         <v>249</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>250</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>251</v>
-      </c>
-      <c r="E61" t="s">
-        <v>252</v>
       </c>
       <c r="F61">
         <v>3</v>
@@ -3977,16 +3983,16 @@
         <v>18</v>
       </c>
       <c r="B62" t="s">
+        <v>252</v>
+      </c>
+      <c r="C62" t="s">
         <v>253</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>254</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>255</v>
-      </c>
-      <c r="E62" t="s">
-        <v>256</v>
       </c>
       <c r="F62">
         <v>9</v>
@@ -4022,16 +4028,16 @@
         <v>31</v>
       </c>
       <c r="B63" t="s">
+        <v>256</v>
+      </c>
+      <c r="C63" t="s">
         <v>257</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>258</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>259</v>
-      </c>
-      <c r="E63" t="s">
-        <v>260</v>
       </c>
       <c r="F63">
         <v>8</v>
@@ -4067,16 +4073,16 @@
         <v>13</v>
       </c>
       <c r="B64" t="s">
+        <v>260</v>
+      </c>
+      <c r="C64" t="s">
         <v>261</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>262</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>263</v>
-      </c>
-      <c r="E64" t="s">
-        <v>264</v>
       </c>
       <c r="F64">
         <v>3</v>
@@ -4109,16 +4115,16 @@
         <v>18</v>
       </c>
       <c r="B65" t="s">
+        <v>264</v>
+      </c>
+      <c r="C65" t="s">
         <v>265</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>266</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>267</v>
-      </c>
-      <c r="E65" t="s">
-        <v>268</v>
       </c>
       <c r="F65">
         <v>5</v>
@@ -4154,16 +4160,16 @@
         <v>31</v>
       </c>
       <c r="B66" t="s">
+        <v>268</v>
+      </c>
+      <c r="C66" t="s">
         <v>269</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>270</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>271</v>
-      </c>
-      <c r="E66" t="s">
-        <v>272</v>
       </c>
       <c r="F66">
         <v>2</v>
@@ -4199,16 +4205,16 @@
         <v>13</v>
       </c>
       <c r="B67" t="s">
+        <v>272</v>
+      </c>
+      <c r="C67" t="s">
         <v>273</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>274</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>275</v>
-      </c>
-      <c r="E67" t="s">
-        <v>276</v>
       </c>
       <c r="F67">
         <v>3</v>

--- a/notas_estudiantes.xlsx
+++ b/notas_estudiantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/322aa45d8efa2c13/PQ1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_26F8A11A51784A0E62355476585DCE3AA744D607" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96A72C80-6355-BA48-897C-628BF39BC0FE}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_26F8A11A51784A0E62355476585DCE3AA744D607" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AD475E4-5FD2-C24F-900B-B2F6AF1A54BF}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="1280" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notas" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="278">
   <si>
     <t>LICENCIATURA</t>
   </si>
@@ -863,6 +863,9 @@
   </si>
   <si>
     <t>Parcial 3 (15%)</t>
+  </si>
+  <si>
+    <t>Parcial 4 (15%)</t>
   </si>
 </sst>
 </file>
@@ -945,7 +948,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -954,6 +957,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -978,6 +984,10 @@
 </file>
 
 <file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -1269,7 +1279,7 @@
   <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1282,6 +1292,7 @@
     <col min="8" max="8" width="16.1640625" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
     <col min="14" max="14" width="16.83203125" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -1327,6 +1338,9 @@
       <c r="N1" s="2" t="s">
         <v>276</v>
       </c>
+      <c r="O1" s="4" t="s">
+        <v>277</v>
+      </c>
       <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -1349,8 +1363,8 @@
         <v>15</v>
       </c>
       <c r="G2">
-        <f>F2*0.15+I2*0.025+J2*0.025+K2*0.025+L2*0.025+M2*0.15+N2*0.15</f>
-        <v>7.9874999999999998</v>
+        <f>F2*0.15+I2*0.025+J2*0.025+K2*0.025+L2*0.025+M2*0.15+N2*0.15+O2*0.15</f>
+        <v>10.1625</v>
       </c>
       <c r="H2">
         <v>100</v>
@@ -1373,6 +1387,9 @@
       <c r="N2">
         <v>15</v>
       </c>
+      <c r="O2">
+        <v>14.5</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1394,8 +1411,8 @@
         <v>17</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" si="0">F3*0.15+I3*0.025+J3*0.025+K3*0.025+L3*0.025+M3*0.15+N3*0.15</f>
-        <v>9.4499999999999993</v>
+        <f t="shared" ref="G3:G66" si="0">F3*0.15+I3*0.025+J3*0.025+K3*0.025+L3*0.025+M3*0.15+N3*0.15+O3*0.15</f>
+        <v>11.85</v>
       </c>
       <c r="H3">
         <v>100</v>
@@ -1417,6 +1434,9 @@
       </c>
       <c r="N3">
         <v>20</v>
+      </c>
+      <c r="O3">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -1566,7 +1586,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>7.9625000000000004</v>
+        <v>10.9625</v>
       </c>
       <c r="H7">
         <v>100</v>
@@ -1587,6 +1607,9 @@
         <v>7</v>
       </c>
       <c r="N7">
+        <v>20</v>
+      </c>
+      <c r="O7">
         <v>20</v>
       </c>
     </row>
@@ -1611,7 +1634,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>1.65</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="H8">
         <v>100</v>
@@ -1632,6 +1655,9 @@
         <v>3</v>
       </c>
       <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
         <v>1</v>
       </c>
     </row>
@@ -1656,7 +1682,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>3.8125</v>
+        <v>4.5625</v>
       </c>
       <c r="H9">
         <v>100</v>
@@ -1678,6 +1704,9 @@
       </c>
       <c r="N9">
         <v>3</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -1701,7 +1730,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>8.625</v>
+        <v>10.875</v>
       </c>
       <c r="H10">
         <v>100</v>
@@ -1723,6 +1752,9 @@
       </c>
       <c r="N10">
         <v>20</v>
+      </c>
+      <c r="O10">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -1746,7 +1778,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>7.5374999999999996</v>
+        <v>9.3374999999999986</v>
       </c>
       <c r="H11">
         <v>100</v>
@@ -1768,6 +1800,9 @@
       </c>
       <c r="N11">
         <v>18</v>
+      </c>
+      <c r="O11">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -1791,7 +1826,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>5.3249999999999993</v>
+        <v>7.2749999999999995</v>
       </c>
       <c r="H12">
         <v>100</v>
@@ -1813,6 +1848,9 @@
       </c>
       <c r="N12">
         <v>20</v>
+      </c>
+      <c r="O12">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -1920,7 +1958,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>3.5625</v>
+        <v>3.7124999999999999</v>
       </c>
       <c r="H15">
         <v>100</v>
@@ -1943,6 +1981,9 @@
       <c r="N15">
         <v>3</v>
       </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1965,7 +2006,7 @@
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>5.6875</v>
+        <v>7.7874999999999996</v>
       </c>
       <c r="H16">
         <v>100</v>
@@ -1988,8 +2029,11 @@
       <c r="N16">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -2034,7 +2078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2076,7 +2120,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -2094,7 +2138,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>4.3624999999999998</v>
+        <v>5.8624999999999998</v>
       </c>
       <c r="H19">
         <v>62.5</v>
@@ -2117,8 +2161,11 @@
       <c r="N19">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2139,7 +2186,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>3.0749999999999997</v>
+        <v>6.0749999999999993</v>
       </c>
       <c r="H20">
         <v>100</v>
@@ -2162,8 +2209,11 @@
       <c r="N20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2205,7 +2255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -2250,7 +2300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -2271,7 +2321,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
-        <v>3.8874999999999997</v>
+        <v>5.9874999999999998</v>
       </c>
       <c r="H23">
         <v>100</v>
@@ -2294,8 +2344,11 @@
       <c r="N23">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -2337,7 +2390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -2358,7 +2411,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
-        <v>3.5624999999999996</v>
+        <v>3.7124999999999995</v>
       </c>
       <c r="H25">
         <v>100</v>
@@ -2381,8 +2434,11 @@
       <c r="N25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -2403,7 +2459,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
-        <v>3.5625</v>
+        <v>3.7124999999999999</v>
       </c>
       <c r="H26">
         <v>100</v>
@@ -2426,8 +2482,11 @@
       <c r="N26">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -2466,7 +2525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -2487,7 +2546,7 @@
       </c>
       <c r="G28">
         <f t="shared" si="0"/>
-        <v>3.3250000000000002</v>
+        <v>3.4750000000000001</v>
       </c>
       <c r="H28">
         <v>100</v>
@@ -2510,8 +2569,11 @@
       <c r="N28">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -2556,7 +2618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -2577,7 +2639,7 @@
       </c>
       <c r="G30">
         <f t="shared" si="0"/>
-        <v>5.6875</v>
+        <v>5.8375000000000004</v>
       </c>
       <c r="H30">
         <v>100</v>
@@ -2600,8 +2662,11 @@
       <c r="N30">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -2622,7 +2687,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="H31">
         <v>100</v>
@@ -2645,8 +2710,11 @@
       <c r="N31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2667,7 +2735,7 @@
       </c>
       <c r="G32">
         <f t="shared" si="0"/>
-        <v>4.8250000000000002</v>
+        <v>6.625</v>
       </c>
       <c r="H32">
         <v>100</v>
@@ -2690,8 +2758,11 @@
       <c r="N32">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -2712,7 +2783,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="0"/>
-        <v>1.9125000000000001</v>
+        <v>2.0625</v>
       </c>
       <c r="H33">
         <v>100</v>
@@ -2735,8 +2806,11 @@
       <c r="N33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -2757,7 +2831,7 @@
       </c>
       <c r="G34">
         <f t="shared" si="0"/>
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="H34">
         <v>100</v>
@@ -2780,8 +2854,11 @@
       <c r="N34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -2802,7 +2879,7 @@
       </c>
       <c r="G35">
         <f t="shared" si="0"/>
-        <v>8.3874999999999993</v>
+        <v>10.487499999999999</v>
       </c>
       <c r="H35">
         <v>100</v>
@@ -2825,8 +2902,11 @@
       <c r="N35">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -2868,7 +2948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -2889,7 +2969,7 @@
       </c>
       <c r="G37">
         <f t="shared" si="0"/>
-        <v>3.2625000000000002</v>
+        <v>4.0125000000000002</v>
       </c>
       <c r="H37">
         <v>100</v>
@@ -2912,8 +2992,11 @@
       <c r="N37">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -2934,7 +3017,7 @@
       </c>
       <c r="G38">
         <f t="shared" si="0"/>
-        <v>1.175</v>
+        <v>2.6749999999999998</v>
       </c>
       <c r="H38">
         <v>100</v>
@@ -2954,8 +3037,11 @@
       <c r="M38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -2976,7 +3062,7 @@
       </c>
       <c r="G39">
         <f t="shared" si="0"/>
-        <v>1.3374999999999999</v>
+        <v>1.4874999999999998</v>
       </c>
       <c r="H39">
         <v>100</v>
@@ -2999,8 +3085,11 @@
       <c r="N39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -3039,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -3060,7 +3149,7 @@
       </c>
       <c r="G41">
         <f t="shared" si="0"/>
-        <v>5.5625</v>
+        <v>6.9874999999999998</v>
       </c>
       <c r="H41">
         <v>100</v>
@@ -3083,8 +3172,11 @@
       <c r="N41">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O41">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -3105,7 +3197,7 @@
       </c>
       <c r="G42">
         <f t="shared" si="0"/>
-        <v>3.6875</v>
+        <v>3.8374999999999999</v>
       </c>
       <c r="H42">
         <v>100</v>
@@ -3128,8 +3220,11 @@
       <c r="N42">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -3174,7 +3269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -3195,7 +3290,7 @@
       </c>
       <c r="G44">
         <f t="shared" si="0"/>
-        <v>1.325</v>
+        <v>2.0750000000000002</v>
       </c>
       <c r="H44">
         <v>100</v>
@@ -3218,8 +3313,11 @@
       <c r="N44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>31</v>
       </c>
@@ -3264,7 +3362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>18</v>
       </c>
@@ -3285,7 +3383,7 @@
       </c>
       <c r="G46">
         <f t="shared" si="0"/>
-        <v>7.0875000000000004</v>
+        <v>8.7375000000000007</v>
       </c>
       <c r="H46">
         <v>100</v>
@@ -3308,8 +3406,11 @@
       <c r="N46">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O46">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -3330,7 +3431,7 @@
       </c>
       <c r="G47">
         <f t="shared" si="0"/>
-        <v>3.8874999999999997</v>
+        <v>4.1875</v>
       </c>
       <c r="H47">
         <v>100</v>
@@ -3353,8 +3454,11 @@
       <c r="N47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>18</v>
       </c>
@@ -3375,7 +3479,7 @@
       </c>
       <c r="G48">
         <f t="shared" si="0"/>
-        <v>1.0625</v>
+        <v>1.2124999999999999</v>
       </c>
       <c r="H48">
         <v>100</v>
@@ -3398,8 +3502,11 @@
       <c r="N48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>31</v>
       </c>
@@ -3420,7 +3527,7 @@
       </c>
       <c r="G49">
         <f t="shared" si="0"/>
-        <v>2.8624999999999998</v>
+        <v>3.0124999999999997</v>
       </c>
       <c r="H49">
         <v>100</v>
@@ -3443,8 +3550,11 @@
       <c r="N49">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>31</v>
       </c>
@@ -3465,7 +3575,7 @@
       </c>
       <c r="G50">
         <f t="shared" si="0"/>
-        <v>6.0874999999999995</v>
+        <v>7.2124999999999995</v>
       </c>
       <c r="H50">
         <v>100</v>
@@ -3488,8 +3598,11 @@
       <c r="N50">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O50">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -3510,7 +3623,7 @@
       </c>
       <c r="G51">
         <f t="shared" si="0"/>
-        <v>6.6624999999999996</v>
+        <v>9.2124999999999986</v>
       </c>
       <c r="H51">
         <v>100</v>
@@ -3533,8 +3646,11 @@
       <c r="N51">
         <v>12</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O51">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -3579,7 +3695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -3600,7 +3716,7 @@
       </c>
       <c r="G53">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6.8</v>
       </c>
       <c r="H53">
         <v>100</v>
@@ -3623,8 +3739,11 @@
       <c r="N53">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O53">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -3669,7 +3788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>31</v>
       </c>
@@ -3690,7 +3809,7 @@
       </c>
       <c r="G55">
         <f t="shared" si="0"/>
-        <v>3.9124999999999992</v>
+        <v>5.4124999999999996</v>
       </c>
       <c r="H55">
         <v>100</v>
@@ -3713,8 +3832,11 @@
       <c r="N55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -3732,7 +3854,7 @@
       </c>
       <c r="G56">
         <f t="shared" si="0"/>
-        <v>1.2</v>
+        <v>1.65</v>
       </c>
       <c r="H56">
         <v>62.5</v>
@@ -3755,8 +3877,11 @@
       <c r="N56">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -3798,7 +3923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>18</v>
       </c>
@@ -3843,7 +3968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -3888,7 +4013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>31</v>
       </c>
@@ -3909,7 +4034,7 @@
       </c>
       <c r="G60">
         <f t="shared" si="0"/>
-        <v>2.5375000000000001</v>
+        <v>2.6875</v>
       </c>
       <c r="H60">
         <v>100</v>
@@ -3932,8 +4057,11 @@
       <c r="N60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>18</v>
       </c>
@@ -3978,7 +4106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>18</v>
       </c>
@@ -4023,7 +4151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>31</v>
       </c>
@@ -4044,7 +4172,7 @@
       </c>
       <c r="G63">
         <f t="shared" si="0"/>
-        <v>3.95</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="H63">
         <v>100</v>
@@ -4067,8 +4195,11 @@
       <c r="N63">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -4110,7 +4241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>18</v>
       </c>
@@ -4131,7 +4262,7 @@
       </c>
       <c r="G65">
         <f t="shared" si="0"/>
-        <v>3.5625</v>
+        <v>4.1624999999999996</v>
       </c>
       <c r="H65">
         <v>100</v>
@@ -4154,8 +4285,11 @@
       <c r="N65">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>31</v>
       </c>
@@ -4176,7 +4310,7 @@
       </c>
       <c r="G66">
         <f t="shared" si="0"/>
-        <v>3.8875000000000002</v>
+        <v>4.5625</v>
       </c>
       <c r="H66">
         <v>100</v>
@@ -4199,8 +4333,11 @@
       <c r="N66">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O66">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -4220,7 +4357,7 @@
         <v>3</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67" si="1">F67*0.15+I67*0.025+J67*0.025+K67*0.025+L67*0.025+M67*0.15+N67*0.15</f>
+        <f t="shared" ref="G67" si="1">F67*0.15+I67*0.025+J67*0.025+K67*0.025+L67*0.025+M67*0.15+N67*0.15+O67*0.15</f>
         <v>3.55</v>
       </c>
       <c r="H67">

--- a/notas_estudiantes.xlsx
+++ b/notas_estudiantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/322aa45d8efa2c13/PQ1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_26F8A11A51784A0E62355476585DCE3AA744D607" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AD475E4-5FD2-C24F-900B-B2F6AF1A54BF}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_26F8A11A51784A0E62355476585DCE3AA744D607" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B6D94EA-2E93-6544-A401-1163AF3C874B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notas" sheetId="1" r:id="rId1"/>
@@ -959,7 +959,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -988,6 +988,10 @@
 </file>
 
 <file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -1278,8 +1282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1586,7 +1590,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>10.9625</v>
+        <v>12.162500000000001</v>
       </c>
       <c r="H7">
         <v>100</v>
@@ -1604,7 +1608,7 @@
         <v>20</v>
       </c>
       <c r="M7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N7">
         <v>20</v>
@@ -1778,7 +1782,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>9.3374999999999986</v>
+        <v>11.0625</v>
       </c>
       <c r="H11">
         <v>100</v>
@@ -1796,7 +1800,7 @@
         <v>12</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>16.5</v>
       </c>
       <c r="N11">
         <v>18</v>

--- a/notas_estudiantes.xlsx
+++ b/notas_estudiantes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/322aa45d8efa2c13/PQ1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_26F8A11A51784A0E62355476585DCE3AA744D607" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B6D94EA-2E93-6544-A401-1163AF3C874B}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_26F8A11A51784A0E62355476585DCE3AA744D607" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68B19552-6D36-924F-B050-5C7EB6C67924}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -992,6 +992,10 @@
 </file>
 
 <file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -1282,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1367,8 +1371,8 @@
         <v>15</v>
       </c>
       <c r="G2">
-        <f>F2*0.15+I2*0.025+J2*0.025+K2*0.025+L2*0.025+M2*0.15+N2*0.15+O2*0.15</f>
-        <v>10.1625</v>
+        <f>F2*0.15+I2*0.025+J2*0.025+K2*0.025+L2*0.025+M2*0.15+N2*0.15+O2*0.2</f>
+        <v>10.887499999999999</v>
       </c>
       <c r="H2">
         <v>100</v>
@@ -1415,8 +1419,8 @@
         <v>17</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" si="0">F3*0.15+I3*0.025+J3*0.025+K3*0.025+L3*0.025+M3*0.15+N3*0.15+O3*0.15</f>
-        <v>11.85</v>
+        <f t="shared" ref="G3:G66" si="0">F3*0.15+I3*0.025+J3*0.025+K3*0.025+L3*0.025+M3*0.15+N3*0.15+O3*0.2</f>
+        <v>12.649999999999999</v>
       </c>
       <c r="H3">
         <v>100</v>
@@ -1590,7 +1594,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>12.162500000000001</v>
+        <v>13.162500000000001</v>
       </c>
       <c r="H7">
         <v>100</v>
@@ -1638,7 +1642,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>1.7999999999999998</v>
+        <v>1.8499999999999999</v>
       </c>
       <c r="H8">
         <v>100</v>
@@ -1686,7 +1690,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>4.5625</v>
+        <v>4.8125</v>
       </c>
       <c r="H9">
         <v>100</v>
@@ -1734,7 +1738,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>10.875</v>
+        <v>11.625</v>
       </c>
       <c r="H10">
         <v>100</v>
@@ -1782,7 +1786,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>11.0625</v>
+        <v>11.6625</v>
       </c>
       <c r="H11">
         <v>100</v>
@@ -1830,7 +1834,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>7.2749999999999995</v>
+        <v>7.9249999999999989</v>
       </c>
       <c r="H12">
         <v>100</v>
@@ -1962,7 +1966,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>3.7124999999999999</v>
+        <v>3.7625000000000002</v>
       </c>
       <c r="H15">
         <v>100</v>
@@ -2010,7 +2014,7 @@
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>7.7874999999999996</v>
+        <v>8.4875000000000007</v>
       </c>
       <c r="H16">
         <v>100</v>
@@ -2142,7 +2146,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>5.8624999999999998</v>
+        <v>6.3624999999999998</v>
       </c>
       <c r="H19">
         <v>62.5</v>
@@ -2190,7 +2194,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>6.0749999999999993</v>
+        <v>7.0749999999999993</v>
       </c>
       <c r="H20">
         <v>100</v>
@@ -2325,7 +2329,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
-        <v>5.9874999999999998</v>
+        <v>6.6875</v>
       </c>
       <c r="H23">
         <v>100</v>
@@ -2415,7 +2419,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
-        <v>3.7124999999999995</v>
+        <v>3.7624999999999997</v>
       </c>
       <c r="H25">
         <v>100</v>
@@ -2463,7 +2467,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
-        <v>3.7124999999999999</v>
+        <v>3.7625000000000002</v>
       </c>
       <c r="H26">
         <v>100</v>
@@ -2550,7 +2554,7 @@
       </c>
       <c r="G28">
         <f t="shared" si="0"/>
-        <v>3.4750000000000001</v>
+        <v>3.5250000000000004</v>
       </c>
       <c r="H28">
         <v>100</v>
@@ -2643,7 +2647,7 @@
       </c>
       <c r="G30">
         <f t="shared" si="0"/>
-        <v>5.8375000000000004</v>
+        <v>5.8875000000000002</v>
       </c>
       <c r="H30">
         <v>100</v>
@@ -2691,7 +2695,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="0"/>
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="H31">
         <v>100</v>
@@ -2739,7 +2743,7 @@
       </c>
       <c r="G32">
         <f t="shared" si="0"/>
-        <v>6.625</v>
+        <v>7.2250000000000005</v>
       </c>
       <c r="H32">
         <v>100</v>
@@ -2787,7 +2791,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="0"/>
-        <v>2.0625</v>
+        <v>2.1125000000000003</v>
       </c>
       <c r="H33">
         <v>100</v>
@@ -2835,7 +2839,7 @@
       </c>
       <c r="G34">
         <f t="shared" si="0"/>
-        <v>5.75</v>
+        <v>6.4</v>
       </c>
       <c r="H34">
         <v>100</v>
@@ -2883,7 +2887,7 @@
       </c>
       <c r="G35">
         <f t="shared" si="0"/>
-        <v>10.487499999999999</v>
+        <v>11.1875</v>
       </c>
       <c r="H35">
         <v>100</v>
@@ -2973,7 +2977,7 @@
       </c>
       <c r="G37">
         <f t="shared" si="0"/>
-        <v>4.0125000000000002</v>
+        <v>4.2625000000000002</v>
       </c>
       <c r="H37">
         <v>100</v>
@@ -3021,7 +3025,7 @@
       </c>
       <c r="G38">
         <f t="shared" si="0"/>
-        <v>2.6749999999999998</v>
+        <v>3.1749999999999998</v>
       </c>
       <c r="H38">
         <v>100</v>
@@ -3066,7 +3070,7 @@
       </c>
       <c r="G39">
         <f t="shared" si="0"/>
-        <v>1.4874999999999998</v>
+        <v>1.5374999999999999</v>
       </c>
       <c r="H39">
         <v>100</v>
@@ -3153,7 +3157,7 @@
       </c>
       <c r="G41">
         <f t="shared" si="0"/>
-        <v>6.9874999999999998</v>
+        <v>7.4625000000000004</v>
       </c>
       <c r="H41">
         <v>100</v>
@@ -3201,7 +3205,7 @@
       </c>
       <c r="G42">
         <f t="shared" si="0"/>
-        <v>3.8374999999999999</v>
+        <v>3.8875000000000002</v>
       </c>
       <c r="H42">
         <v>100</v>
@@ -3294,7 +3298,7 @@
       </c>
       <c r="G44">
         <f t="shared" si="0"/>
-        <v>2.0750000000000002</v>
+        <v>2.3250000000000002</v>
       </c>
       <c r="H44">
         <v>100</v>
@@ -3387,7 +3391,7 @@
       </c>
       <c r="G46">
         <f t="shared" si="0"/>
-        <v>8.7375000000000007</v>
+        <v>9.2875000000000014</v>
       </c>
       <c r="H46">
         <v>100</v>
@@ -3435,7 +3439,7 @@
       </c>
       <c r="G47">
         <f t="shared" si="0"/>
-        <v>4.1875</v>
+        <v>4.2874999999999996</v>
       </c>
       <c r="H47">
         <v>100</v>
@@ -3483,7 +3487,7 @@
       </c>
       <c r="G48">
         <f t="shared" si="0"/>
-        <v>1.2124999999999999</v>
+        <v>1.2625</v>
       </c>
       <c r="H48">
         <v>100</v>
@@ -3531,7 +3535,7 @@
       </c>
       <c r="G49">
         <f t="shared" si="0"/>
-        <v>3.0124999999999997</v>
+        <v>3.0625</v>
       </c>
       <c r="H49">
         <v>100</v>
@@ -3579,7 +3583,7 @@
       </c>
       <c r="G50">
         <f t="shared" si="0"/>
-        <v>7.2124999999999995</v>
+        <v>7.5874999999999995</v>
       </c>
       <c r="H50">
         <v>100</v>
@@ -3627,7 +3631,7 @@
       </c>
       <c r="G51">
         <f t="shared" si="0"/>
-        <v>9.2124999999999986</v>
+        <v>10.0625</v>
       </c>
       <c r="H51">
         <v>100</v>
@@ -3720,7 +3724,7 @@
       </c>
       <c r="G53">
         <f t="shared" si="0"/>
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="H53">
         <v>100</v>
@@ -3813,7 +3817,7 @@
       </c>
       <c r="G55">
         <f t="shared" si="0"/>
-        <v>5.4124999999999996</v>
+        <v>5.9124999999999996</v>
       </c>
       <c r="H55">
         <v>100</v>
@@ -3858,7 +3862,7 @@
       </c>
       <c r="G56">
         <f t="shared" si="0"/>
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="H56">
         <v>62.5</v>
@@ -4038,7 +4042,7 @@
       </c>
       <c r="G60">
         <f t="shared" si="0"/>
-        <v>2.6875</v>
+        <v>2.7375000000000003</v>
       </c>
       <c r="H60">
         <v>100</v>
@@ -4176,7 +4180,7 @@
       </c>
       <c r="G63">
         <f t="shared" si="0"/>
-        <v>4.8499999999999996</v>
+        <v>5.15</v>
       </c>
       <c r="H63">
         <v>100</v>
@@ -4266,7 +4270,7 @@
       </c>
       <c r="G65">
         <f t="shared" si="0"/>
-        <v>4.1624999999999996</v>
+        <v>4.3624999999999998</v>
       </c>
       <c r="H65">
         <v>100</v>
@@ -4314,7 +4318,7 @@
       </c>
       <c r="G66">
         <f t="shared" si="0"/>
-        <v>4.5625</v>
+        <v>4.7875000000000005</v>
       </c>
       <c r="H66">
         <v>100</v>
@@ -4361,7 +4365,7 @@
         <v>3</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67" si="1">F67*0.15+I67*0.025+J67*0.025+K67*0.025+L67*0.025+M67*0.15+N67*0.15+O67*0.15</f>
+        <f t="shared" ref="G67" si="1">F67*0.15+I67*0.025+J67*0.025+K67*0.025+L67*0.025+M67*0.15+N67*0.15+O67*0.2</f>
         <v>3.55</v>
       </c>
       <c r="H67">
